--- a/Trabalho 2/Experiments.xlsx
+++ b/Trabalho 2/Experiments.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7236"/>
   </bookViews>
   <sheets>
-    <sheet name="Profundidade" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparação" sheetId="1" r:id="rId1"/>
+    <sheet name="GA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,42 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Januzi, Rafael</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Januzi, Rafael:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Tamanho da memória para armazenar os últimos nós já visitados. (Sem repetição)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>N/A</t>
   </si>
@@ -69,29 +36,41 @@
     <t>Algorithm</t>
   </si>
   <si>
-    <t>deep_mem</t>
-  </si>
-  <si>
     <t>hillClimbing</t>
   </si>
   <si>
-    <t>maxIterations</t>
+    <t>Pop Size</t>
   </si>
   <si>
-    <t>popSize</t>
+    <t>Max Iterations</t>
   </si>
   <si>
-    <t>geneticAlgorithm</t>
+    <t>Cross Over Percentage</t>
   </si>
   <si>
-    <t>mutationRate</t>
+    <t>Mutation Rate</t>
+  </si>
+  <si>
+    <t>Elitism Rate</t>
+  </si>
+  <si>
+    <t>geneticAlgorithm_1</t>
+  </si>
+  <si>
+    <t>geneticAlgorithm_2</t>
+  </si>
+  <si>
+    <t>geneticAlgorithm_3</t>
+  </si>
+  <si>
+    <t>Crossover Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,19 +85,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -162,13 +128,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -187,10 +150,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,198 +436,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="3"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="H3:H6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -678,6 +694,2621 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>100</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7">
+        <v>100</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>100</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>100</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7">
+        <v>100</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>100</v>
+      </c>
+      <c r="C28" s="7">
+        <v>100</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>100</v>
+      </c>
+      <c r="C29" s="7">
+        <v>100</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>100</v>
+      </c>
+      <c r="C33" s="7">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>100</v>
+      </c>
+      <c r="C34" s="7">
+        <v>100</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>100</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7">
+        <v>100</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>100</v>
+      </c>
+      <c r="C38" s="7">
+        <v>100</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>100</v>
+      </c>
+      <c r="C39" s="7">
+        <v>100</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>100</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>100</v>
+      </c>
+      <c r="C41" s="7">
+        <v>100</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>100</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>100</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
+        <v>100</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
+        <v>100</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
+        <v>100</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
+        <v>10</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7">
+        <v>100</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>10</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
+        <v>100</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>100</v>
+      </c>
+      <c r="C51" s="7">
+        <v>100</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>100</v>
+      </c>
+      <c r="C52" s="7">
+        <v>100</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>100</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
+        <v>100</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="7">
+        <v>100</v>
+      </c>
+      <c r="C55" s="7">
+        <v>100</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="7">
+        <v>10</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="7">
+        <v>10</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="7">
+        <v>100</v>
+      </c>
+      <c r="C58" s="7">
+        <v>100</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="7">
+        <v>10</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="7">
+        <v>100</v>
+      </c>
+      <c r="C60" s="7">
+        <v>100</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>100</v>
+      </c>
+      <c r="C61" s="7">
+        <v>100</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>100</v>
+      </c>
+      <c r="C62" s="7">
+        <v>100</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
+        <v>100</v>
+      </c>
+      <c r="C63" s="7">
+        <v>100</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
+        <v>100</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="7">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="7">
+        <v>100</v>
+      </c>
+      <c r="C66" s="7">
+        <v>100</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="7">
+        <v>100</v>
+      </c>
+      <c r="C67" s="7">
+        <v>100</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="7">
+        <v>100</v>
+      </c>
+      <c r="C68" s="7">
+        <v>100</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="7">
+        <v>100</v>
+      </c>
+      <c r="C69" s="7">
+        <v>100</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G69" s="8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="7">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="8">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="7">
+        <v>100</v>
+      </c>
+      <c r="C71" s="7">
+        <v>100</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G71" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="7">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="7">
+        <v>100</v>
+      </c>
+      <c r="C73" s="7">
+        <v>100</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="7">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="7">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G75" s="8">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="7">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7">
+        <v>100</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="7">
+        <v>10</v>
+      </c>
+      <c r="C77" s="7">
+        <v>100</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="7">
+        <v>100</v>
+      </c>
+      <c r="C78" s="7">
+        <v>100</v>
+      </c>
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="7">
+        <v>10</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G79" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="7">
+        <v>10</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G80" s="8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="7">
+        <v>10</v>
+      </c>
+      <c r="C81" s="7">
+        <v>100</v>
+      </c>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="7">
+        <v>10</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="7">
+        <v>10</v>
+      </c>
+      <c r="C83" s="7">
+        <v>100</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="7">
+        <v>10</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="7">
+        <v>10</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="7">
+        <v>100</v>
+      </c>
+      <c r="C86" s="7">
+        <v>100</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="7">
+        <v>100</v>
+      </c>
+      <c r="C87" s="7">
+        <v>100</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="7">
+        <v>10</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G88" s="8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="7">
+        <v>10</v>
+      </c>
+      <c r="C89" s="7">
+        <v>100</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G89" s="8">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="7">
+        <v>100</v>
+      </c>
+      <c r="C90" s="7">
+        <v>100</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="7">
+        <v>10</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="7">
+        <v>100</v>
+      </c>
+      <c r="C92" s="7">
+        <v>100</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="7">
+        <v>10</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="7">
+        <v>100</v>
+      </c>
+      <c r="C94" s="7">
+        <v>100</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="7">
+        <v>100</v>
+      </c>
+      <c r="C95" s="7">
+        <v>100</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="7">
+        <v>10</v>
+      </c>
+      <c r="C96" s="7">
+        <v>100</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="7">
+        <v>10</v>
+      </c>
+      <c r="C97" s="7">
+        <v>100</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="7">
+        <v>10</v>
+      </c>
+      <c r="C98" s="7">
+        <v>100</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G98" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="7">
+        <v>10</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="7">
+        <v>10</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G100" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="7">
+        <v>10</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G101" s="8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="7">
+        <v>10</v>
+      </c>
+      <c r="C102" s="7">
+        <v>100</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G102" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="7">
+        <v>10</v>
+      </c>
+      <c r="C103" s="7">
+        <v>100</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G103" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="7">
+        <v>10</v>
+      </c>
+      <c r="C104" s="7">
+        <v>100</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G104" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="7">
+        <v>10</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="7">
+        <v>10</v>
+      </c>
+      <c r="C106" s="7">
+        <v>100</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G106" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="7">
+        <v>10</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="7">
+        <v>10</v>
+      </c>
+      <c r="C108" s="7">
+        <v>100</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G108" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="7">
+        <v>10</v>
+      </c>
+      <c r="C109" s="7">
+        <v>100</v>
+      </c>
+      <c r="D109" s="7">
+        <v>1</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G109" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="7">
+        <v>10</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="7">
+        <v>10</v>
+      </c>
+      <c r="C111" s="7">
+        <v>100</v>
+      </c>
+      <c r="D111" s="7">
+        <v>1</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G111" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="7">
+        <v>10</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="7">
+        <v>10</v>
+      </c>
+      <c r="C113" s="7">
+        <v>100</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G113" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="7">
+        <v>10</v>
+      </c>
+      <c r="C114" s="7">
+        <v>100</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G114" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="7">
+        <v>10</v>
+      </c>
+      <c r="C115" s="7">
+        <v>100</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G115" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="7">
+        <v>10</v>
+      </c>
+      <c r="C116" s="7">
+        <v>100</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G116" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="7">
+        <v>10</v>
+      </c>
+      <c r="C117" s="7">
+        <v>100</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="7">
+        <v>10</v>
+      </c>
+      <c r="C118" s="7">
+        <v>100</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="7">
+        <v>10</v>
+      </c>
+      <c r="C119" s="7">
+        <v>100</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G119" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" s="7">
+        <v>10</v>
+      </c>
+      <c r="C120" s="7">
+        <v>100</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="7">
+        <v>10</v>
+      </c>
+      <c r="C121" s="7">
+        <v>100</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G121" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="7">
+        <v>10</v>
+      </c>
+      <c r="C122" s="7">
+        <v>100</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="7">
+        <v>10</v>
+      </c>
+      <c r="C123" s="7">
+        <v>100</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G123" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="7">
+        <v>10</v>
+      </c>
+      <c r="C124" s="7">
+        <v>100</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="7">
+        <v>10</v>
+      </c>
+      <c r="C125" s="7">
+        <v>100</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="7">
+        <v>10</v>
+      </c>
+      <c r="C126" s="7">
+        <v>100</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="7">
+        <v>10</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D127" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="7">
+        <v>10</v>
+      </c>
+      <c r="C128" s="7">
+        <v>100</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="7">
+        <v>10</v>
+      </c>
+      <c r="C129" s="7">
+        <v>100</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" s="7">
+        <v>10</v>
+      </c>
+      <c r="C130" s="7">
+        <v>100</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3:G130">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Trabalho 2/Experiments.xlsx
+++ b/Trabalho 2/Experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>N/A</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Crossover Percentage</t>
+  </si>
+  <si>
+    <t>[90%, 100%]:</t>
+  </si>
+  <si>
+    <t>[70%, 89%]:</t>
+  </si>
+  <si>
+    <t>[50%, 69%]:</t>
+  </si>
+  <si>
+    <t>&lt; 50%:</t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,6 +166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,8 +498,8 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
+      <c r="C3" s="9">
+        <v>1000</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
@@ -506,10 +521,10 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="9">
         <v>100</v>
       </c>
       <c r="E4" s="7">
@@ -529,10 +544,10 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="9">
         <v>100</v>
       </c>
       <c r="E5" s="7">
@@ -552,10 +567,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="9">
         <v>100</v>
       </c>
       <c r="E6" s="7">
@@ -699,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G130"/>
+  <dimension ref="B2:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+      <selection activeCell="B2" sqref="B2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,9 +729,10 @@
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -736,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>100</v>
       </c>
@@ -755,8 +771,14 @@
       <c r="G3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>100</v>
       </c>
@@ -775,8 +797,14 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>100</v>
       </c>
@@ -795,8 +823,14 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>100</v>
       </c>
@@ -815,8 +849,14 @@
       <c r="G6" s="8">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>100</v>
       </c>
@@ -836,7 +876,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>100</v>
       </c>
@@ -856,7 +896,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>100</v>
       </c>
@@ -876,7 +916,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>100</v>
       </c>
@@ -896,7 +936,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>100</v>
       </c>
@@ -916,7 +956,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>100</v>
       </c>
@@ -936,7 +976,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>100</v>
       </c>
@@ -956,7 +996,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>100</v>
       </c>
@@ -976,7 +1016,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>100</v>
       </c>
@@ -996,7 +1036,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>10</v>
       </c>
